--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_3.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,491 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_3_9</t>
+          <t>model_1_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9719633855027264</v>
+        <v>0.8677738400896748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8004422576664041</v>
+        <v>0.6097974846714893</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7855988612881625</v>
+        <v>0.6396707885014241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9494048455568174</v>
+        <v>0.8688801735673469</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1167031563337083</v>
+        <v>0.4635202027651434</v>
       </c>
       <c r="G2" t="n">
-        <v>1.334443541863668</v>
+        <v>2.609286016719126</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7669004414799399</v>
+        <v>1.288876696442281</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1527141519838126</v>
+        <v>0.2277431669377075</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7274761149173284</v>
+        <v>1.540859338071091</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3416184367590664</v>
+        <v>0.6808231802495737</v>
       </c>
       <c r="L2" t="n">
-        <v>2.794343327825509</v>
+        <v>0.8199473567178551</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3469985856448701</v>
+        <v>0.6915454647650093</v>
       </c>
       <c r="N2" t="n">
-        <v>134.2962433869881</v>
+        <v>35.53781061502963</v>
       </c>
       <c r="O2" t="n">
-        <v>275.6314159302045</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_8</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9715363251352772</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7991434855259599</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7896541146295101</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9523273435343037</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.118480806514375</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.343128437147114</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7523950354150385</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1438930147579656</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7476074618446339</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3442104102353312</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.821675191342258</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.3496313801123632</v>
-      </c>
-      <c r="N3" t="n">
-        <v>134.2660086037368</v>
-      </c>
-      <c r="O3" t="n">
-        <v>275.6011811469532</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_7</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9687869690351727</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7936427821333956</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7977158373037816</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9615192502498963</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1299250746801597</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.379911666061602</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7235587208547076</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1161485745119653</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7988651204267457</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3604512098469912</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.997633981748947</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3661279560830634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>134.0815946865868</v>
-      </c>
-      <c r="O4" t="n">
-        <v>275.4167672298032</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_6</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9682045644269176</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.793275697635774</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7977342838734826</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9611728169407208</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.13234934941038</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.382366361787466</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7234927385444807</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1171942333228124</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8073299418986842</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3637985011106835</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.034907876677273</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.3695279638380951</v>
-      </c>
-      <c r="N5" t="n">
-        <v>134.0446205319927</v>
-      </c>
-      <c r="O5" t="n">
-        <v>275.3797930752091</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9647498493283575</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7875030053870746</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7997609478568802</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9628584591874317</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1467296932380874</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.420968381435323</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.716243478988597</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1121063661330083</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8400969216852765</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3830531206478905</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25600964298512</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.3890858243854551</v>
-      </c>
-      <c r="N6" t="n">
-        <v>133.8383264128413</v>
-      </c>
-      <c r="O6" t="n">
-        <v>275.1734989560577</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9638369776114102</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7855440604354791</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7983514854468522</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.966788690494185</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1505295461306642</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.434067855346754</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7212850443039409</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1002435316834152</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8919741963516961</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3879813734326226</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.314433432869748</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.3940916922251013</v>
-      </c>
-      <c r="N7" t="n">
-        <v>133.7871917885127</v>
-      </c>
-      <c r="O7" t="n">
-        <v>275.1223643317291</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_3</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9633022705950253</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7843232004158037</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7988196187565432</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9660411242010615</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1527552783613502</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.442231751919866</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.7196105585991053</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1024999523577358</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.832463721215175</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3908391975753587</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.348654681918383</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.3969945242413094</v>
-      </c>
-      <c r="N8" t="n">
-        <v>133.7578362519407</v>
-      </c>
-      <c r="O8" t="n">
-        <v>275.0930087951571</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_2</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9625085693361923</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7840849072067626</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7979965671014246</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9658490499668096</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1560590810405522</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.443825219705964</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7225545666461876</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.103079700638466</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8575432210842069</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3950431382020857</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.399451562483691</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.4012646727305085</v>
-      </c>
-      <c r="N9" t="n">
-        <v>133.7150412376235</v>
-      </c>
-      <c r="O9" t="n">
-        <v>275.0502137808399</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_1</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9618015903132249</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.78345422740689</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7974904210532885</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9654099474328952</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1590019000977549</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.448042578431725</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.7243650217123361</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1044050680938809</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8672286898582731</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.3987504233198442</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.444698219953608</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.4050303438829462</v>
-      </c>
-      <c r="N10" t="n">
-        <v>133.6776782530659</v>
-      </c>
-      <c r="O10" t="n">
-        <v>275.0128507962824</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>model_1_3_0</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9533828056963899</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7762629422035934</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.794442201895639</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9579025810213425</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1940453158202151</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.496130735698993</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7352683248933467</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1270649672045655</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9348377259511196</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.4405057500421704</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.983500435431047</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.4474432752611356</v>
-      </c>
-      <c r="N11" t="n">
-        <v>133.2793271209876</v>
-      </c>
-      <c r="O11" t="n">
-        <v>274.614499664204</v>
+        <v>72.50239420325546</v>
       </c>
     </row>
   </sheetData>
